--- a/earlywarning-pom/earlywarning-config/src/baf-instances/65_Inst_Workspace_ISBA.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/65_Inst_Workspace_ISBA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="465" windowWidth="20625" windowHeight="11640" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="2040" yWindow="465" windowWidth="20625" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Workspace" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="r Workspace_TargetVariable" sheetId="5" r:id="rId4"/>
     <sheet name="Fields definition" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
   <si>
     <t>Workspace</t>
   </si>
@@ -210,24 +210,15 @@
     <t>Corporate</t>
   </si>
   <si>
-    <t>SME Retail</t>
-  </si>
-  <si>
     <t>WS_ISBA_CORPORATE</t>
   </si>
   <si>
-    <t>WS_ISBA_RETAIL</t>
-  </si>
-  <si>
     <t>WS_ISBA_CORPORATE_COUNTERPARTY_ISBA</t>
   </si>
   <si>
     <t>COUNTERPARTY_ISBA</t>
   </si>
   <si>
-    <t>WS_ISBA_RETAIL_COUNTERPARTY_ISBA</t>
-  </si>
-  <si>
     <t>WS_ISBA_BL_ISBA_000001</t>
   </si>
   <si>
@@ -250,9 +241,6 @@
   </si>
   <si>
     <t>ISBA_TARGET</t>
-  </si>
-  <si>
-    <t>WS_ISBA_RETAIL_ISBA_TARGET</t>
   </si>
 </sst>
 </file>
@@ -347,7 +335,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -390,7 +378,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -443,7 +431,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -486,7 +474,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -635,7 +623,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -678,7 +666,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -982,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,7 +1016,7 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -1037,23 +1025,6 @@
         <v>27</v>
       </c>
       <c r="E3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4">
         <v>17</v>
       </c>
     </row>
@@ -1067,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,39 +1088,19 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
         <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1165,7 +1116,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,16 +1163,16 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1229,16 +1180,16 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1246,16 +1197,16 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1267,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,39 +1268,19 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1363,7 +1294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/65_Inst_Workspace_ISBA.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/65_Inst_Workspace_ISBA.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alberto.collu\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="465" windowWidth="20625" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="2040" yWindow="465" windowWidth="20625" windowHeight="11640" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Workspace" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="41">
   <si>
     <t>Workspace</t>
   </si>
@@ -241,12 +241,18 @@
   </si>
   <si>
     <t>ISBA_TARGET</t>
+  </si>
+  <si>
+    <t>BL_ISBA_000004</t>
+  </si>
+  <si>
+    <t>WS_ISBA_BL_ISBA_000004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -259,12 +265,14 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -340,7 +348,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -383,7 +397,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -436,7 +456,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3074" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="3074" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000020C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -479,7 +505,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -532,7 +564,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4098" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="4098" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -575,7 +613,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -628,7 +672,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5122" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="5122" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002140000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -671,7 +721,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1113,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,6 +1263,23 @@
       </c>
       <c r="F5" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
